--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/64_Osmaniye_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/64_Osmaniye_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6A7B0A-E3E8-41BC-8C18-849E88A3F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3430483B-F44E-4E9F-A587-58CDB2B0414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="685" xr2:uid="{B85BE513-34E7-40A1-B2AB-32ABC1F90B89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{E11E785E-1BE9-4EBB-A8ED-5542CFA95374}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -969,14 +969,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D105A9D9-1E55-42D9-8499-5A4EECB22AE0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2FED51BD-BCBD-418D-B167-6667B1A2D65C}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{D59068CD-13FC-4361-88CA-29FA6594F103}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{1CC4F632-E386-4AD8-8255-76AFC4F4B44A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E67A6080-F3EC-455C-B6E2-6193CE46D23E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{63F40BE8-9FA3-488A-98D3-D428BB3CADE9}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F62142BE-9B3A-4D22-AE68-AB9E5F001E06}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{467821CB-5407-4283-874B-FC2113248511}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7A880EB8-0BED-430C-9974-6A08DB4F12E7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2F826CC4-938F-4F00-8330-928EE3E07FF6}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8454A9CC-088B-49E2-8842-8765DF6EF508}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{7A03A230-3D66-4D25-8BF5-AEEC6207E938}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{48BF250A-A2E2-4298-A04B-039297B8B6A6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7E56E6ED-0C89-457B-8AFF-BCD5978D89F3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{2FBA0698-D7E2-4620-A6ED-FE632BD795EA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C07F20DA-EF35-491B-8BDF-ACC36230EB5F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5CBB9B-6D9C-4C54-AEE4-F96CB825A12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A00B40D-CD2F-4BAD-9097-90DB3C3BEBA7}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2626,17 +2626,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34D1D587-B530-4D62-B641-19DFE2F8F761}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D712BDE5-2E96-460F-92A3-B03058044AC9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A547E80D-B01C-48FD-A1FA-19D18E0933EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21D2C9EE-B21C-475B-A864-981F7A039D54}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{094203A4-16B4-4DE6-BFBB-88EA3078DFDA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{641944C8-C381-4BEA-AFE2-B155115F9B8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FFF0FDF-4570-468E-9F3E-E586650A33AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB81809F-2BE3-467C-8BB7-D8D4059410B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0AA886E0-055F-4834-A610-3D6747709DEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AA9E10CD-6DBA-4A96-9CED-D653C7920728}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F099F4B9-8C3B-4D98-854F-01947C993766}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA54C337-AF1C-4F0E-85E0-41894D1995ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADA7F0B6-F647-4F5A-AC3B-5967F8B7AF72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F02E566D-91D9-4284-B0BF-46C11214D8B2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D6F30CB-7784-4C78-87EA-453E1032D445}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{363EE7AA-A663-40E0-B3FE-EBA13C2B2873}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40BBDFA1-F7A7-4F19-BBDD-2E21553FBAB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{488C203B-32FB-4EDD-B2CE-12B98EBAF804}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92CE51A9-1B52-4131-8603-4BFFA96D9083}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9829DFFE-98E6-404D-8A27-31C464EEBA2E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{68B3921A-0363-4789-A9A1-93A09E8C9023}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{240F72C1-069D-4978-B7D4-EA9E4D0ECF1C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE992315-8DAF-46C9-8F96-FE58218A157E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E2C586-8811-4903-AC19-73A25B2341A9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3914,17 +3914,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C5C3EC8-80F3-4FEA-B722-2022834EAEF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4047C998-5A1C-4E07-B43D-A3E7C9BB1AF0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79E31E3B-B749-4E9F-9F9B-04ED395E550A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0787AD85-3CAD-4776-9545-BA01EC08CDD4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDED6788-9298-4328-93F9-00EC066E8C09}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FA91AF7-D92E-4AA4-BA21-1007CEE19797}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{227DD719-274B-49EF-BADB-A466DFCD071B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C693500-CF08-4CB7-B92D-ABD09F5D32C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F15F0034-4663-401A-8534-B8D3A12A94CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D5FA79EF-F8D3-448F-A082-6E0F9CD93FDA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD03892C-057F-46C8-9550-B99F0C98E027}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55871FB3-71E0-42E3-AD6E-CA1750B2D331}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2989B96-D750-4CA7-BE35-514326174749}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C81DEEC-51CE-47CC-A775-74F148D5EEC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EE0195F-A113-49E1-BECB-640E73F58BFA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED8EA0E5-6896-464F-B99A-E965AB4BAC54}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99D7AF76-340C-41FF-9346-56C83EB7F9DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{335B9D48-F1B9-4053-AD53-820BAFE0E64B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74B1AA62-4065-492F-B322-BFF805A44FA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{33BCF4C0-676A-45E0-AD46-535E2BE30D9B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F7206EB-D5FF-4851-B5C3-E0701397A78A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47113FC2-C6BB-4701-883B-1DAAE06B7514}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3937,7 +3937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DA361B-0717-445B-8D87-13ACD10C2E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C30AC09-E8DC-4D58-84C6-6CF25FA79E1D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5196,17 +5196,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B966F32-DE93-4EA6-9E8C-518A0D2CD790}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD3FF158-CFBC-4E60-B5E1-2766DBF3A24F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05EE7A2B-6193-48F4-B190-784E11608EDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AA61AF7-7FEC-46B1-B58E-0E064F0E2B1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35994D2F-2B9E-4945-B500-4EE12A7F639B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4BC4BC03-23AD-4900-9B86-ED2954D1A2F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2AF508C7-2DAD-4547-9F29-8895F3098B94}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09E0D1A0-FF2D-4E23-9076-11A3CE085141}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98DCAFEB-233F-4D29-BC94-A13E23E11EE2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1EDACECE-415E-47FF-8878-3CA749F06294}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1869F9B7-7C17-40ED-8FB1-B3135335CEF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0828F685-DA45-4439-BDB3-E9887038C6A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{334AD65B-DB06-4E35-A5AC-6C9EBC456F82}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{912B32C5-6657-46E4-94D5-A89D07F27EC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD27C5CC-8001-41FD-BB8A-0008A1A81C55}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F59B11C5-4F81-443F-B62F-479E0CADB3D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A156C2E-4191-49AE-A7D3-34798179D37D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A01A93C-A44C-4002-959B-891543B2F6C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3CBB721-CFEF-446F-A6F9-B0ABF47A45F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{703EC66D-4CE2-4C53-9965-93DB34FE0DFC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E34CF328-5441-49A4-A8D3-6F390B634010}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE45C09A-F560-473D-96D9-26B23C989E6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5219,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E975386-BCD6-4E4D-BB0E-07A806A6072D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09510181-3C89-4DDC-9D8B-0858B1B12344}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6474,17 +6474,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15D79238-6FB0-43A1-9452-F05378AC6347}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8A580C6-FBAB-4F3C-8AEB-D0B602C390D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9147BD8-67BF-4750-993C-594D510896B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{029EF318-2A79-487E-B2DD-AE09D1865DC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7762088D-0B85-47A9-B9E0-1484DC1F90E7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC5B3E03-8955-4DA9-BDDF-16622E8E96CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB92FF37-FC4D-43AE-9F6C-204C23A72456}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A844C5F9-BCAB-448A-BBCB-522F52D865A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{524C1FDA-CE1C-45F4-A819-0786DFDCCF5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D7DC59F3-B110-4CFF-995E-70072287AA41}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40B9F356-9F7F-4209-908D-592FF3619015}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAB41778-8550-4AB5-8887-B7C8C9C82F21}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A022E6B4-4FF3-4C47-8329-105A009E503F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C1F6B94-30DC-4719-A66C-E6C372D0595A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4E1DA73-9864-4B97-8FC7-D39CD12CE9AF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7056E9F8-DF9B-461C-8835-006D4FD7F647}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62CA6F55-4E0C-422F-BEF1-5FB78C1AD628}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{466ECE4E-D318-492A-913A-D1F315E13567}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EF236D0-CCBC-4DE8-945B-5F692849946C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{447F143D-B57C-4017-9C4D-F427CD95B29D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0523C4F2-4523-415A-8E48-08F065474288}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF13C9FF-CF1B-408E-8343-E2473DD18021}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6497,7 +6497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20028B23-CF20-4E9E-8219-14FDC63E310B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DA81B-7666-4BD8-99FF-51B5E27E6E2A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7774,17 +7774,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{332E42CA-5EDB-4507-85F7-019D1967E59A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C66FA8DC-9DD1-48DC-AD32-DE552C38426B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D17BB217-313D-4F36-B144-927A3B1477A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2090BA01-A4B9-4AFB-9838-477BEE9EF7BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E736324-A72A-4650-8B16-E04C4C26C932}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07277A7C-45EE-4BDF-A5EA-363C9984824C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF9FB4D8-EE1E-448A-AEB2-D151C681CD5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2BC698DA-9CEE-4A03-A197-E400412238CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B4EE04E5-834C-4DF8-9CC1-1975AA64688A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B4CBADB6-545E-4B41-ABF2-8B1F4D14F304}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AEAB32C-0E74-42D3-8F32-4929E8E316B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{437CB7BE-E1B9-4AA2-B73A-0E329D80D13A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6EA88D6-A4B1-4B1B-A67E-7E522A851717}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8D8A0C4-1CCD-482E-831D-433FF315F959}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7705850-7387-4C98-B715-29A2CDF2BBB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56CD85A8-9529-44E6-B4B6-378D6472BF5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD937228-6DC9-4CA9-8493-D1A9509F245F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A25E91B9-C1C3-4B80-B9FA-EF7C8703FA03}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{774024AD-6D28-4F87-BCFB-4708AE384F56}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{419660DE-ED16-4CC4-9392-14EB0EF75E84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2B1462C1-F75C-4ABA-9767-BBA0DEBB964B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4613E690-4743-4328-AF14-75414E94E258}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7797,7 +7797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43EE474-BACC-4897-BF0A-096DFD927FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931460BA-0267-4C08-A9B9-42170F1054C7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9074,17 +9074,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90F36DD1-F123-4415-8BD8-9F71212AF958}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCB36AE5-2FFF-4579-8FB5-66424F275D15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3AB1818B-5011-4E2E-9F51-A513D8E36FCB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FDD58E36-09CA-4358-946C-2B3EC663AF70}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FAABA778-35AE-49B7-AA05-ECD3431C2C94}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0496555-A6A6-47F6-9566-171C1036348E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09F443CD-A11A-4B7B-A909-6B51AB7907E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F95C4C8-6FBB-4658-A09B-606A4790C850}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{34817FCD-2209-4F45-AC65-60B11C357C1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B2A0E5F4-A34C-46D4-A998-2D5175ADDBF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FCBECC2-0339-4767-9A1D-47C0D9860E1B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FED5F88B-431D-49B3-9FC1-F57E827D7E3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DAB3D3B-534F-4894-BE1E-8D7F0F648744}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{143F56BF-2C75-448D-981C-0B7E6701D69A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0F708C7-31F8-4D3A-A69A-34AF0CD8F166}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4C024D9-3AEA-4257-B2A8-3BF1E3CD8848}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1925EC7B-B75D-488A-8DB0-1FC210537E49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{785914DD-7226-4388-826F-BD966ABA81E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26CDB4CC-FDAD-4C92-8FF4-94A38A215D68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DB766687-F45A-453E-9BB5-468CD76C2842}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2FC9F5EC-BAC8-43A0-BC83-7D4312D4FAA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98964BFA-9D79-4BAB-BB85-1AD49F8F12E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9097,7 +9097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4488696-8D9C-46F2-AB41-98121A2D59CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB5582B-3839-469C-B50D-6DA3BA244FB3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10374,17 +10374,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{188E2A21-2591-4B04-B0A3-911B2405FA39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24752936-7ED6-4291-9B6F-8923C0DA35C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{991A44E9-C174-4BB2-A489-95FF158ACC74}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A1865E3-404D-428C-BB96-24CFCFA8A597}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9314FA64-BC9B-4EBD-848B-ABEBD8524800}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44133EA0-4625-4E39-9B6A-AF6C8AE8A16F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6674923F-FC22-4721-91FE-FF96033B33EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9739B66-9B1C-4D6D-914F-50475C455723}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3670EBDD-5A8A-4390-8CA8-41EA87FA5A3C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B02C1BD-78CE-402B-BCDE-51C4E052BCE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD6293E8-EA27-4F23-B959-D398B87F0E62}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3369867F-39E6-4B10-8E9D-7C2CCCDAD1E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C29D6A49-FFFF-43A7-9320-92ADE4397895}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8B49B41-0BBB-48FD-BB9B-6CE50E08F744}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D305C2EA-CECA-491B-8C00-1897074F07B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C4C5638-8763-4DDE-A025-613E3D43392A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08D647D1-484E-4D92-8353-C91C8C818A98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2956FF7F-1AF0-4C98-B68E-79DE47EA7D46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51C20BE0-4FEC-41E4-AFC7-FA636F7E9A7F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AAB6BB6E-2846-46B5-9F88-89874A3B2430}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01252ADD-3804-448D-B31C-B5B5EB98B1EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3F14D41-1411-426D-A35F-470107DB98E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10397,7 +10397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F8FC62-3193-4699-832C-E8D998B77302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645E2E4D-2EE5-4C37-9812-1CC69FB60D4A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11670,17 +11670,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{762245F2-E4B6-45E1-AF73-98D7458BC16F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AAA06D8-0322-4B3D-8419-401592CD7400}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16E440DB-1699-4695-B178-E4099D010957}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85C7227E-E671-4E51-916A-35D04DD3AAE6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33BD58B7-C43F-40FE-8B3E-7540E6DAF692}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3290A1DF-BCFB-4280-BA58-EA036649AC2B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16064A8B-D777-44B1-9D55-74A0055A86F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97DDA255-1CCB-4F9D-817F-BC3D0CBB5AFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D7633B11-C333-4EA2-BC5E-EA6E5417AB30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{27A2145D-3A9F-459C-83D6-7D9EBF979854}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91FDA21C-E96B-4CF8-83B3-675D0EF147E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{909B668C-363B-457B-A3EF-F4F3B2DA8998}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71E5CB3E-2BED-455B-8C06-7C7480A7D88F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{162D304C-9E8F-489B-BFC1-7D25D01017E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58FAFE51-EC87-411D-BA1C-DC91EBB587FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73C586DD-1AB5-462C-896A-D4FE0394A4A8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A07CA246-93A2-41C0-8B35-16B2FBD1F170}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD05F292-0196-40E5-B153-B95DD6203408}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A8B4219-6150-4133-B089-3B98D3BB273C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CD474094-57AF-4511-B1F8-6A9158E29D92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{15F84789-A472-43BB-BA64-8C01FA98ED00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D9B85EC-9231-437F-A129-F7F768A9F1C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11693,7 +11693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCEA558-AF32-428A-8317-71347F62B659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94956983-6D86-48D0-A86E-D7704C8A3533}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12966,17 +12966,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65B4B9C4-7E8A-4046-A1F9-09836C3896BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1ACFA060-19CC-4B1C-AB11-5C5801FCD731}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F08EAED3-DFA2-4E5E-8A4B-E6EEFA8AF6DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F53408D-FA2E-4CC7-BA28-26972EBBACD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E789FC30-2422-4E09-9A83-18BBBAC4C02A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{399C2D98-137C-40B7-B7F5-4D20C059F4C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97755F47-86E9-4406-AB95-B92C966ACED3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1610B94E-5869-4F21-AD29-DD14059A4ECB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AACF19F4-1AA2-452D-AB8C-CCB30E88FCD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{626243D8-85BB-4E19-8E8C-A80DF0BDBF8E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04B50B69-5DE5-4F4C-B48D-E26688623C09}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DD24745-E472-4860-AB4B-F2CDB7B1A437}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC731FC8-D14F-415C-AAF7-BB0D1CEFB27C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42F9F6EC-5577-44AA-B2A1-9807CA8AAFC4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D19DE27C-8C89-400F-A9CC-3BF778A158AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9214E99E-DE00-4C73-A241-21095A4F20DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6A410BD-AAA5-4359-A984-5E7CA5FC3529}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D30DF6CE-ECB7-4AF9-97CA-943DEA598B2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F493DFB5-E97A-4134-8CA0-9430E06459E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0C2B2F8C-F674-4B39-96D2-C0EB62152354}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2977F2B2-A123-452B-8566-B438B902566B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{809DFE1E-A529-4DF0-A58F-20D56A505BEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12989,7 +12989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8BFDAF-E52B-43EA-8BB0-F458C0C0D9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00024D2-56B2-4A9A-BD0E-B0384C5EEF18}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14262,17 +14262,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9DE6CA8-3081-4956-A08B-7627DCF49531}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{431717AF-54B0-4B85-AEA9-1D9EA2CC1A91}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D9F6DDB-491F-47F7-A869-37C8F8CF3750}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA26C2E9-41D0-4A56-9244-831045EA4C84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7453754E-F890-40CB-8BB3-9C5336E02268}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{875B5DE4-0177-49C8-B374-E630ADAB6876}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3497B574-8746-4C01-9F53-F2A15ADC1BF3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25444841-888D-4410-8659-B5B3CC25E13F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{485EAB52-CEC4-4811-B2FF-E82BC122A6AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EA657559-C285-47A4-9090-8386102166FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4A7426B-0AFB-4934-92E0-3BF23C012972}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1734EFB8-BF39-47F2-88C7-6F1067316235}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{486AFD51-0B95-4441-AF0D-E23892604BC3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5B6D60B-E5BA-40FC-9C6F-9349484539CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BB9B006-40BC-40E6-A095-189FE29B03D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECCF2DEA-D9A9-4181-A75C-B56CA0D260D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E60A0D8-5485-4163-AD18-816B552EC597}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AA194E7-A3B6-48B5-AEDE-D5AB246FF482}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B614E05B-F552-4513-9C4C-1AD212A7FA3D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1AF7E607-6E45-4BCA-BF94-E1EE638C51E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0244A9F8-BE75-421C-B10F-C146A3645C93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C8F1EEA-6D20-4070-AB9D-E4F198E8F738}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14285,7 +14285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F42759-4292-4355-A7F6-BD54574EFA52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43E431D-F2E3-4B17-980C-5DAB49A320B4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15558,17 +15558,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E085579-6F8E-46D4-9C44-29F5591B5680}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBB648D3-403C-4ACF-8A0A-FC6610484BCD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1CA50E0-624E-4D9F-82F5-7B40189A2E75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3EAF0A19-13F6-4302-A03E-5F6152C32A4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FE5136B-B968-4917-8226-0E33805C9ED7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0665978F-1C82-401D-BA1A-178253A27B5F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C31B99E1-2D15-4D0D-8567-B0703BBCA78D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D5ACBD6-48D7-4EDC-928C-FEEBFD39C298}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B89951E0-AE20-4651-94C7-6FE927E2E4D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{375AF2BB-3BEC-40AF-ABB0-AE602DC035A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4255551-AB9F-444E-9E2F-C03D56C049F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21E6E662-A607-4170-A719-DB473FF48869}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{919E8FF3-5E21-4BEE-83ED-EB0E8DCA8DBF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E75C5E81-981B-43E4-939F-0DDD2031D2D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D19DD4AA-1C90-4FD1-8D1C-4433A52693F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5AA288E-16DE-443A-A34F-D187363FA19D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B04B1AA-D350-452D-9F71-5239C27C0B3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55D7037E-6A9B-41B8-B375-05A989696453}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99DFDD3E-1272-4B69-AAD6-C96A335D72D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C82C55C2-E371-4B23-A764-DB0269B48F90}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9D3B6482-CDC1-4EAD-A62A-E364F389BC25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{541D18AF-1539-4860-8CE9-55CED5114C64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15581,7 +15581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D431B65-69EA-4B6C-A58C-76CAD36A9C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126B95CD-0372-46AB-8FCB-9FF21D9B16F6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16850,17 +16850,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F95A9168-8F65-44EC-90F6-E07EF7CC88B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B2CFDA2-4C5D-47A9-9773-0F1A45B8AC9B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1C8E132-F84E-4804-9CD6-E7EF5ADF353C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76FE9539-37A6-4A98-A8D9-D5BDE009278B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61F62267-7567-4E1F-BEAB-C691013C652D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9132B812-2C6A-468D-B069-2A8A37F588B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{518E375F-D381-47CC-AFAF-D7CAB7FCFE62}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7C99DA1-BDBE-4E1A-B5B0-E8BF55ACE8AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4B22217B-A367-4F08-A44D-A8C55FB061BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8F217CF0-1A32-4D40-AFF8-51DAE6655DE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A2E333C-AC5D-4F4D-A536-1D0A61FC3C51}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A868693-ECAD-432B-AAD5-28AE87A0AEFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B404C3D1-6FDE-43A2-8882-8881CEA2074C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73EA0970-814C-4460-BEA0-7258027A244B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CAF8AFE3-4C76-489B-B2E1-72187CA0C58A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AB6250E-A3BD-4C05-91FE-03CB02BEE412}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C768BBDA-5E1F-42B4-A304-D844475ED54F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E73F450C-F30A-4700-A02D-983E0FAD935D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EC09157-B64C-4DE3-904F-E86BDCF29D65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{39981354-7F98-46F6-8A46-4E609281F41C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1F4E912B-EECB-4373-9FEB-8A9110998736}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C874734-2928-434B-80D7-43061B08D22C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
